--- a/presidents-data/countries.xlsx
+++ b/presidents-data/countries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobt/Documents/Linkletter/frontend/presidents-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobt/Documents/grid/frontend/presidents-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF8E676-E2FA-5744-A5A8-3A1594956FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0899D2A0-EB39-8C4E-97EF-622E448B50AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19560" yWindow="1080" windowWidth="10440" windowHeight="17440" xr2:uid="{CA436EC0-290F-7844-B125-41A799AA7FC0}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{CA436EC0-290F-7844-B125-41A799AA7FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1765,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D945DC87-F917-344E-801F-B331375726ED}">
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N193" zoomScale="98" workbookViewId="0">
-      <selection activeCell="P196" sqref="P196"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/presidents-data/countries.xlsx
+++ b/presidents-data/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobt/Documents/grid/frontend/presidents-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0899D2A0-EB39-8C4E-97EF-622E448B50AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B74A4-D6EF-4C41-A7F8-FB672C23CCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{CA436EC0-290F-7844-B125-41A799AA7FC0}"/>
+    <workbookView xWindow="15880" yWindow="780" windowWidth="30240" windowHeight="17780" xr2:uid="{CA436EC0-290F-7844-B125-41A799AA7FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="636">
   <si>
     <t>Country Name</t>
   </si>
@@ -1350,6 +1350,600 @@
   </si>
   <si>
     <t>To Host Olympics</t>
+  </si>
+  <si>
+    <t>World Cup Winner</t>
+  </si>
+  <si>
+    <t>NATO Member</t>
+  </si>
+  <si>
+    <t>Image Url</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cd/Flag_of_Afghanistan_%282013%E2%80%932021%29.svg/1920px-Flag_of_Afghanistan_%282013%E2%80%932021%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/File:Flag_of_Albania.svg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Flag_of_Algeria.svg/500px-Flag_of_Algeria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/19/Flag_of_Andorra.svg/500px-Flag_of_Andorra.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9d/Flag_of_Angola.svg/500px-Flag_of_Angola.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Flag_of_Antigua_and_Barbuda.svg/500px-Flag_of_Antigua_and_Barbuda.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1a/Flag_of_Argentina.svg/500px-Flag_of_Argentina.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2f/Flag_of_Armenia.svg/500px-Flag_of_Armenia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/88/Flag_of_Australia_%28converted%29.svg/500px-Flag_of_Australia_%28converted%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/41/Flag_of_Austria.svg/500px-Flag_of_Austria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/dd/Flag_of_Azerbaijan.svg/500px-Flag_of_Azerbaijan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/93/Flag_of_the_Bahamas.svg/500px-Flag_of_the_Bahamas.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Flag_of_Bahrain.svg/500px-Flag_of_Bahrain.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f9/Flag_of_Bangladesh.svg/500px-Flag_of_Bangladesh.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ef/Flag_of_Barbados.svg/500px-Flag_of_Barbados.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/85/Flag_of_Belarus.svg/500px-Flag_of_Belarus.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Belgium.svg/500px-Flag_of_Belgium.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e7/Flag_of_Belize.svg/500px-Flag_of_Belize.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0a/Flag_of_Benin.svg/500px-Flag_of_Benin.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/91/Flag_of_Bhutan.svg/500px-Flag_of_Bhutan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b3/Bandera_de_Bolivia_%28Estado%29.svg/500px-Bandera_de_Bolivia_%28Estado%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bf/Flag_of_Bosnia_and_Herzegovina.svg/500px-Flag_of_Bosnia_and_Herzegovina.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_Botswana.svg/500px-Flag_of_Botswana.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/0/05/Flag_of_Brazil.svg/500px-Flag_of_Brazil.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Brunei.svg/500px-Flag_of_Brunei.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Flag_of_Bulgaria.svg/500px-Flag_of_Bulgaria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Flag_of_Burkina_Faso.svg/500px-Flag_of_Burkina_Faso.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/50/Flag_of_Burundi.svg/500px-Flag_of_Burundi.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/83/Flag_of_Cambodia.svg/500px-Flag_of_Cambodia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4f/Flag_of_Cameroon.svg/500px-Flag_of_Cameroon.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Canada_%28Pantone%29.svg/500px-Flag_of_Canada_%28Pantone%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/38/Flag_of_Cape_Verde.svg/500px-Flag_of_Cape_Verde.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6f/Flag_of_the_Central_African_Republic.svg/500px-Flag_of_the_Central_African_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4b/Flag_of_Chad.svg/500px-Flag_of_Chad.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/78/Flag_of_Chile.svg/500px-Flag_of_Chile.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fa/Flag_of_the_People%27s_Republic_of_China.svg/500px-Flag_of_the_People%27s_Republic_of_China.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/21/Flag_of_Colombia.svg/500px-Flag_of_Colombia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/94/Flag_of_the_Comoros.svg/500px-Flag_of_the_Comoros.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6f/Flag_of_the_Democratic_Republic_of_the_Congo.svg/500px-Flag_of_the_Democratic_Republic_of_the_Congo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/92/Flag_of_the_Republic_of_the_Congo.svg/500px-Flag_of_the_Republic_of_the_Congo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f2/Flag_of_Costa_Rica.svg/500px-Flag_of_Costa_Rica.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flag_of_Croatia.svg/500px-Flag_of_Croatia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bd/Flag_of_Cuba.svg/500px-Flag_of_Cuba.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Cyprus.svg/500px-Flag_of_Cyprus.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flag_of_the_Czech_Republic.svg/500px-Flag_of_the_Czech_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9c/Flag_of_Denmark.svg/500px-Flag_of_Denmark.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/34/Flag_of_Djibouti.svg/500px-Flag_of_Djibouti.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c4/Flag_of_Dominica.svg/500px-Flag_of_Dominica.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_the_Dominican_Republic.svg/500px-Flag_of_the_Dominican_Republic.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e8/Flag_of_Ecuador.svg/500px-Flag_of_Ecuador.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Flag_of_Egypt.svg/500px-Flag_of_Egypt.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/34/Flag_of_El_Salvador.svg/500px-Flag_of_El_Salvador.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Flag_of_Equatorial_Guinea.svg/500px-Flag_of_Equatorial_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/29/Flag_of_Eritrea.svg/500px-Flag_of_Eritrea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8f/Flag_of_Estonia.svg/500px-Flag_of_Estonia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fb/Flag_of_Eswatini.svg/500px-Flag_of_Eswatini.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/71/Flag_of_Ethiopia.svg/500px-Flag_of_Ethiopia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/ba/Flag_of_Fiji.svg/500px-Flag_of_Fiji.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Finland.svg/500px-Flag_of_Finland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/c/c3/Flag_of_France.svg/500px-Flag_of_France.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/04/Flag_of_Gabon.svg/500px-Flag_of_Gabon.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Flag_of_The_Gambia.svg/500px-Flag_of_The_Gambia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0f/Flag_of_Georgia.svg/500px-Flag_of_Georgia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/b/ba/Flag_of_Germany.svg/500px-Flag_of_Germany.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/19/Flag_of_Ghana.svg/500px-Flag_of_Ghana.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/5c/Flag_of_Greece.svg/500px-Flag_of_Greece.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Grenada.svg/500px-Flag_of_Grenada.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ec/Flag_of_Guatemala.svg/500px-Flag_of_Guatemala.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ed/Flag_of_Guinea.svg/500px-Flag_of_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Flag_of_Guinea-Bissau.svg/500px-Flag_of_Guinea-Bissau.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/99/Flag_of_Guyana.svg/500px-Flag_of_Guyana.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/56/Flag_of_Haiti.svg/500px-Flag_of_Haiti.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2f/Flag_of_Honduras_%282022%E2%80%93present%29.svg/500px-Flag_of_Honduras_%282022%E2%80%93present%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c1/Flag_of_Hungary.svg/500px-Flag_of_Hungary.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Flag_of_Iceland.svg/500px-Flag_of_Iceland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/4/41/Flag_of_India.svg/500px-Flag_of_India.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Indonesia.svg/500px-Flag_of_Indonesia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ca/Flag_of_Iran.svg/500px-Flag_of_Iran.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f6/Flag_of_Iraq.svg/500px-Flag_of_Iraq.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/45/Flag_of_Ireland.svg/500px-Flag_of_Ireland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Israel.svg/500px-Flag_of_Israel.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/0/03/Flag_of_Italy.svg/500px-Flag_of_Italy.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Flag_of_C%C3%B4te_d%27Ivoire.svg/500px-Flag_of_C%C3%B4te_d%27Ivoire.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0a/Flag_of_Jamaica.svg/500px-Flag_of_Jamaica.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/9e/Flag_of_Japan.svg/500px-Flag_of_Japan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c0/Flag_of_Jordan.svg/500px-Flag_of_Jordan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d3/Flag_of_Kazakhstan.svg/500px-Flag_of_Kazakhstan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/49/Flag_of_Kenya.svg/500px-Flag_of_Kenya.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d3/Flag_of_Kiribati.svg/500px-Flag_of_Kiribati.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/aa/Flag_of_Kuwait.svg/500px-Flag_of_Kuwait.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/c7/Flag_of_Kyrgyzstan.svg/500px-Flag_of_Kyrgyzstan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/56/Flag_of_Laos.svg/500px-Flag_of_Laos.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Flag_of_Latvia.svg/500px-Flag_of_Latvia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/59/Flag_of_Lebanon.svg/500px-Flag_of_Lebanon.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4a/Flag_of_Lesotho.svg/500px-Flag_of_Lesotho.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b8/Flag_of_Liberia.svg/500px-Flag_of_Liberia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/05/Flag_of_Libya.svg/500px-Flag_of_Libya.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/47/Flag_of_Liechtenstein.svg/500px-Flag_of_Liechtenstein.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/11/Flag_of_Lithuania.svg/500px-Flag_of_Lithuania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/Flag_of_Luxembourg.svg/500px-Flag_of_Luxembourg.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Madagascar.svg/500px-Flag_of_Madagascar.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d1/Flag_of_Malawi.svg/500px-Flag_of_Malawi.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/66/Flag_of_Malaysia.svg/500px-Flag_of_Malaysia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0f/Flag_of_Maldives.svg/500px-Flag_of_Maldives.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/92/Flag_of_Mali.svg/500px-Flag_of_Mali.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/73/Flag_of_Malta.svg/500px-Flag_of_Malta.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2e/Flag_of_the_Marshall_Islands.svg/500px-Flag_of_the_Marshall_Islands.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/43/Flag_of_Mauritania.svg/500px-Flag_of_Mauritania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/77/Flag_of_Mauritius.svg/500px-Flag_of_Mauritius.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fc/Flag_of_Mexico.svg/500px-Flag_of_Mexico.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e4/Flag_of_the_Federated_States_of_Micronesia.svg/500px-Flag_of_the_Federated_States_of_Micronesia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/27/Flag_of_Moldova.svg/500px-Flag_of_Moldova.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/ea/Flag_of_Monaco.svg/500px-Flag_of_Monaco.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4c/Flag_of_Mongolia.svg/500px-Flag_of_Mongolia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/64/Flag_of_Montenegro.svg/500px-Flag_of_Montenegro.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Flag_of_Morocco.svg/500px-Flag_of_Morocco.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d0/Flag_of_Mozambique.svg/500px-Flag_of_Mozambique.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8c/Flag_of_Myanmar.svg/500px-Flag_of_Myanmar.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Flag_of_Namibia.svg/500px-Flag_of_Namibia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/30/Flag_of_Nauru.svg/500px-Flag_of_Nauru.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9b/Flag_of_Nepal.svg/500px-Flag_of_Nepal.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/20/Flag_of_the_Netherlands.svg/500px-Flag_of_the_Netherlands.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/3e/Flag_of_New_Zealand.svg/500px-Flag_of_New_Zealand.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/19/Flag_of_Nicaragua.svg/500px-Flag_of_Nicaragua.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f4/Flag_of_Niger.svg/500px-Flag_of_Niger.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Flag_of_Nigeria.svg/500px-Flag_of_Nigeria.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/51/Flag_of_North_Korea.svg/500px-Flag_of_North_Korea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/79/Flag_of_North_Macedonia.svg/500px-Flag_of_North_Macedonia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Norway.svg/500px-Flag_of_Norway.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/dd/Flag_of_Oman.svg/500px-Flag_of_Oman.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Flag_of_Pakistan.svg/500px-Flag_of_Pakistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/48/Flag_of_Palau.svg/500px-Flag_of_Palau.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/00/Flag_of_Palestine.svg/500px-Flag_of_Palestine.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/ab/Flag_of_Panama.svg/500px-Flag_of_Panama.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e3/Flag_of_Papua_New_Guinea.svg/500px-Flag_of_Papua_New_Guinea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/27/Flag_of_Paraguay.svg/500px-Flag_of_Paraguay.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/df/Flag_of_Peru_%28state%29.svg/500px-Flag_of_Peru_%28state%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/99/Flag_of_the_Philippines.svg/500px-Flag_of_the_Philippines.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/1/12/Flag_of_Poland.svg/500px-Flag_of_Poland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a8/Flag_of_Portugal_%28official%29.svg/500px-Flag_of_Portugal_%28official%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/65/Flag_of_Qatar.svg/500px-Flag_of_Qatar.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/73/Flag_of_Romania.svg/500px-Flag_of_Romania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/f/f3/Flag_of_Russia.svg/500px-Flag_of_Russia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Flag_of_Rwanda.svg/500px-Flag_of_Rwanda.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Flag_of_Saint_Kitts_and_Nevis.svg/500px-Flag_of_Saint_Kitts_and_Nevis.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9f/Flag_of_Saint_Lucia.svg/500px-Flag_of_Saint_Lucia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6d/Flag_of_Saint_Vincent_and_the_Grenadines.svg/500px-Flag_of_Saint_Vincent_and_the_Grenadines.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Flag_of_Samoa.svg/500px-Flag_of_Samoa.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b1/Flag_of_San_Marino.svg/500px-Flag_of_San_Marino.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0a/Flag_of_S%C3%A3o_Tom%C3%A9_and_Pr%C3%ADncipe.svg/500px-Flag_of_S%C3%A3o_Tom%C3%A9_and_Pr%C3%ADncipe.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/Flag_of_Saudi_Arabia.svg/500px-Flag_of_Saudi_Arabia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fd/Flag_of_Senegal.svg/500px-Flag_of_Senegal.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/ff/Flag_of_Serbia.svg/500px-Flag_of_Serbia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fc/Flag_of_Seychelles.svg/500px-Flag_of_Seychelles.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/17/Flag_of_Sierra_Leone.svg/500px-Flag_of_Sierra_Leone.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/48/Flag_of_Singapore.svg/500px-Flag_of_Singapore.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/e/e6/Flag_of_Slovakia.svg/500px-Flag_of_Slovakia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f0/Flag_of_Slovenia.svg/500px-Flag_of_Slovenia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/74/Flag_of_the_Solomon_Islands.svg/500px-Flag_of_the_Solomon_Islands.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a0/Flag_of_Somalia.svg/500px-Flag_of_Somalia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/af/Flag_of_South_Africa.svg/500px-Flag_of_South_Africa.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Flag_of_South_Korea.svg/500px-Flag_of_South_Korea.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Flag_of_South_Sudan.svg/500px-Flag_of_South_Sudan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/9/9a/Flag_of_Spain.svg/500px-Flag_of_Spain.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/11/Flag_of_Sri_Lanka.svg/500px-Flag_of_Sri_Lanka.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/01/Flag_of_Sudan.svg/500px-Flag_of_Sudan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/60/Flag_of_Suriname.svg/500px-Flag_of_Suriname.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/4/4c/Flag_of_Sweden.svg/500px-Flag_of_Sweden.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f3/Flag_of_Switzerland.svg/500px-Flag_of_Switzerland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/5/54/Flag_of_Syria_%282025-%29.svg/500px-Flag_of_Syria_%282025-%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d0/Flag_of_Tajikistan.svg/500px-Flag_of_Tajikistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/38/Flag_of_Tanzania.svg/500px-Flag_of_Tanzania.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Flag_of_Thailand.svg/500px-Flag_of_Thailand.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/Flag_of_East_Timor.svg/500px-Flag_of_East_Timor.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7a/Flag_of_Togo_%283-2%29.svg/500px-Flag_of_Togo_%283-2%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9a/Flag_of_Tonga.svg/500px-Flag_of_Tonga.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/64/Flag_of_Trinidad_and_Tobago.svg/500px-Flag_of_Trinidad_and_Tobago.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Flag_of_Tunisia.svg/500px-Flag_of_Tunisia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b4/Flag_of_Turkey.svg/500px-Flag_of_Turkey.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/1b/Flag_of_Turkmenistan.svg/500px-Flag_of_Turkmenistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/38/Flag_of_Tuvalu.svg/500px-Flag_of_Tuvalu.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4e/Flag_of_Uganda.svg/500px-Flag_of_Uganda.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/49/Flag_of_Ukraine.svg/500px-Flag_of_Ukraine.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/cb/Flag_of_the_United_Arab_Emirates.svg/500px-Flag_of_the_United_Arab_Emirates.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/a/ae/Flag_of_the_United_Kingdom.svg/500px-Flag_of_the_United_Kingdom.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/a/a4/Flag_of_the_United_States.svg/500px-Flag_of_the_United_States.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/fe/Flag_of_Uruguay.svg/500px-Flag_of_Uruguay.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/84/Flag_of_Uzbekistan.svg/500px-Flag_of_Uzbekistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/bc/Flag_of_Vanuatu.svg/500px-Flag_of_Vanuatu.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/b/b3/Flag_of_Vatican_City_%282023%E2%80%93present%29.svg/500px-Flag_of_Vatican_City_%282023%E2%80%93present%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7b/Flag_of_Venezuela_%28state%29.svg/500px-Flag_of_Venezuela_%28state%29.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/21/Flag_of_Vietnam.svg/500px-Flag_of_Vietnam.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/89/Flag_of_Yemen.svg/500px-Flag_of_Yemen.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/06/Flag_of_Zambia.svg/500px-Flag_of_Zambia.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6a/Flag_of_Zimbabwe.svg/500px-Flag_of_Zimbabwe.svg.png</t>
   </si>
 </sst>
 </file>
@@ -1763,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D945DC87-F917-344E-801F-B331375726ED}">
-  <dimension ref="A1:P197"/>
+  <dimension ref="A1:S197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1786,9 +2380,11 @@
     <col min="14" max="14" width="27.6640625" customWidth="1"/>
     <col min="15" max="15" width="18.1640625" customWidth="1"/>
     <col min="16" max="16" width="21.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1834,8 +2430,17 @@
       <c r="O1" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="P1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>439</v>
+      </c>
+      <c r="R1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1881,9 +2486,18 @@
       <c r="O2" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1929,9 +2543,18 @@
       <c r="O3" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1977,9 +2600,18 @@
       <c r="O4" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R4" t="s">
+        <v>443</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -2025,9 +2657,18 @@
       <c r="O5" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -2073,9 +2714,18 @@
       <c r="O6" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2121,9 +2771,18 @@
       <c r="O7" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,9 +2825,18 @@
       <c r="O8" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2214,9 +2882,18 @@
       <c r="O9" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2259,9 +2936,18 @@
       <c r="O10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2307,9 +2993,18 @@
       <c r="O11" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" ht="21" customHeight="1">
+      <c r="P11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="21" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2355,9 +3050,18 @@
       <c r="O12" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>390</v>
       </c>
@@ -2403,9 +3107,18 @@
       <c r="O13" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -2451,9 +3164,18 @@
       <c r="O14" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="P14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -2499,9 +3221,18 @@
       <c r="O15" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="P15" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2547,9 +3278,18 @@
       <c r="O16" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="P16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -2595,9 +3335,18 @@
       <c r="O17" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="P17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
@@ -2643,9 +3392,18 @@
       <c r="O18" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="P18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -2691,9 +3449,18 @@
       <c r="O19" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="P19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2739,9 +3506,18 @@
       <c r="O20" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="P20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2787,9 +3563,18 @@
       <c r="O21" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="P21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2832,9 +3617,18 @@
       <c r="O22" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="P22" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2880,9 +3674,18 @@
       <c r="O23" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="P23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -2928,9 +3731,18 @@
       <c r="O24" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="P24" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
@@ -2973,9 +3785,18 @@
       <c r="O25" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="P25" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
@@ -3018,9 +3839,18 @@
       <c r="O26" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="P26" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
@@ -3066,9 +3896,18 @@
       <c r="O27" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="P27" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -3114,9 +3953,18 @@
       <c r="O28" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P28" s="4"/>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="P28" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -3162,9 +4010,18 @@
       <c r="O29" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P29" s="4"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="P29" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -3210,9 +4067,18 @@
       <c r="O30" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P30" s="4"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="P30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
@@ -3258,9 +4124,18 @@
       <c r="O31" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="P31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -3303,9 +4178,18 @@
       <c r="O32" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="P32" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -3351,9 +4235,18 @@
       <c r="O33" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="P33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -3399,9 +4292,18 @@
       <c r="O34" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="P34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="4" t="s">
         <v>60</v>
       </c>
@@ -3447,9 +4349,18 @@
       <c r="O35" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="P35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="4" t="s">
         <v>61</v>
       </c>
@@ -3492,9 +4403,18 @@
       <c r="O36" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="P36" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="S36" s="4"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
@@ -3540,9 +4460,18 @@
       <c r="O37" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="P37" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="4" t="s">
         <v>63</v>
       </c>
@@ -3585,9 +4514,18 @@
       <c r="O38" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P38" s="4"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="P38" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="4" t="s">
         <v>64</v>
       </c>
@@ -3633,9 +4571,18 @@
       <c r="O39" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="P39" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="6" t="s">
         <v>384</v>
       </c>
@@ -3681,9 +4628,18 @@
       <c r="O40" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="P40" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="4" t="s">
         <v>385</v>
       </c>
@@ -3729,9 +4685,18 @@
       <c r="O41" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="P41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="4" t="s">
         <v>65</v>
       </c>
@@ -3777,9 +4742,18 @@
       <c r="O42" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="P42" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="4" t="s">
         <v>66</v>
       </c>
@@ -3825,9 +4799,18 @@
       <c r="O43" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="P43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
@@ -3873,9 +4856,18 @@
       <c r="O44" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="P44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="S44" s="4"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="4" t="s">
         <v>68</v>
       </c>
@@ -3921,9 +4913,18 @@
       <c r="O45" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="P45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -3969,9 +4970,18 @@
       <c r="O46" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="P46" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -4017,9 +5027,18 @@
       <c r="O47" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="P47" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -4065,9 +5084,18 @@
       <c r="O48" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="P48" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -4113,9 +5141,18 @@
       <c r="O49" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="P49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
@@ -4161,9 +5198,18 @@
       <c r="O50" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="P50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
@@ -4206,9 +5252,18 @@
       <c r="O51" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="P51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
@@ -4254,9 +5309,18 @@
       <c r="O52" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="P52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -4302,9 +5366,18 @@
       <c r="O53" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="P53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -4350,9 +5423,18 @@
       <c r="O54" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="P54" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -4398,9 +5480,18 @@
       <c r="O55" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="P55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
@@ -4446,9 +5537,18 @@
       <c r="O56" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P56" s="1"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="P56" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -4494,9 +5594,18 @@
       <c r="O57" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="P57" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -4542,9 +5651,18 @@
       <c r="O58" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="P58" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
@@ -4590,9 +5708,18 @@
       <c r="O59" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P59" s="1"/>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="P59" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -4638,9 +5765,18 @@
       <c r="O60" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P60" s="1"/>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="P60" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -4686,9 +5822,18 @@
       <c r="O61" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P61" s="1"/>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="P61" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
@@ -4734,9 +5879,18 @@
       <c r="O62" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P62" s="1"/>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="P62" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
         <v>386</v>
       </c>
@@ -4782,9 +5936,18 @@
       <c r="O63" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P63" s="1"/>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="P63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -4830,9 +5993,18 @@
       <c r="O64" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P64" s="1"/>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="P64" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
         <v>84</v>
       </c>
@@ -4878,9 +6050,18 @@
       <c r="O65" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P65" s="1"/>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="P65" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
         <v>85</v>
       </c>
@@ -4926,9 +6107,18 @@
       <c r="O66" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="P66" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
         <v>86</v>
       </c>
@@ -4974,9 +6164,18 @@
       <c r="O67" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="P67" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
@@ -5022,9 +6221,18 @@
       <c r="O68" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P68" s="1"/>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="P68" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -5070,9 +6278,18 @@
       <c r="O69" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="P69" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
         <v>88</v>
       </c>
@@ -5118,9 +6335,18 @@
       <c r="O70" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="P70" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
@@ -5166,9 +6392,18 @@
       <c r="O71" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="P71" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
         <v>90</v>
       </c>
@@ -5211,9 +6446,18 @@
       <c r="O72" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P72" s="1"/>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="P72" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
         <v>91</v>
       </c>
@@ -5259,9 +6503,18 @@
       <c r="O73" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P73" s="1"/>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="P73" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
         <v>92</v>
       </c>
@@ -5307,9 +6560,18 @@
       <c r="O74" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P74" s="1"/>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="P74" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -5355,9 +6617,18 @@
       <c r="O75" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P75" s="1"/>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="P75" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -5403,9 +6674,18 @@
       <c r="O76" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P76" s="1"/>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="P76" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
@@ -5451,9 +6731,18 @@
       <c r="O77" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P77" s="1"/>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="P77" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
         <v>94</v>
       </c>
@@ -5499,9 +6788,18 @@
       <c r="O78" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P78" s="1"/>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="P78" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="1" t="s">
         <v>95</v>
       </c>
@@ -5547,9 +6845,18 @@
       <c r="O79" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P79" s="1"/>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="P79" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
         <v>96</v>
       </c>
@@ -5595,9 +6902,18 @@
       <c r="O80" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P80" s="1"/>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="P80" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
         <v>20</v>
       </c>
@@ -5643,9 +6959,18 @@
       <c r="O81" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P81" s="1"/>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="P81" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
@@ -5691,9 +7016,18 @@
       <c r="O82" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P82" s="1"/>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="P82" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
@@ -5739,9 +7073,18 @@
       <c r="O83" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P83" s="1"/>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="P83" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
         <v>99</v>
       </c>
@@ -5787,9 +7130,18 @@
       <c r="O84" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P84" s="1"/>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="P84" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -5835,9 +7187,18 @@
       <c r="O85" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="P85" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
         <v>22</v>
       </c>
@@ -5883,9 +7244,18 @@
       <c r="O86" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P86" s="1"/>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="P86" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="1" t="s">
         <v>100</v>
       </c>
@@ -5931,9 +7301,18 @@
       <c r="O87" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="P87" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
@@ -5979,9 +7358,18 @@
       <c r="O88" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="P88" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="1" t="s">
         <v>102</v>
       </c>
@@ -6027,9 +7415,18 @@
       <c r="O89" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="P89" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="1" t="s">
         <v>103</v>
       </c>
@@ -6075,9 +7472,18 @@
       <c r="O90" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P90" s="1"/>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="P90" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19">
       <c r="A91" s="1" t="s">
         <v>104</v>
       </c>
@@ -6123,9 +7529,18 @@
       <c r="O91" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P91" s="1"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="P91" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19">
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
@@ -6171,9 +7586,18 @@
       <c r="O92" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P92" s="1"/>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="P92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
         <v>106</v>
       </c>
@@ -6219,9 +7643,18 @@
       <c r="O93" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P93" s="1"/>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="P93" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1" t="s">
         <v>107</v>
       </c>
@@ -6267,9 +7700,18 @@
       <c r="O94" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P94" s="1"/>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="P94" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19">
       <c r="A95" s="1" t="s">
         <v>108</v>
       </c>
@@ -6315,9 +7757,18 @@
       <c r="O95" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="P95" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19">
       <c r="A96" s="1" t="s">
         <v>109</v>
       </c>
@@ -6363,9 +7814,18 @@
       <c r="O96" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="P96" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19">
       <c r="A97" s="1" t="s">
         <v>110</v>
       </c>
@@ -6411,9 +7871,18 @@
       <c r="O97" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="P97" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19">
       <c r="A98" s="1" t="s">
         <v>111</v>
       </c>
@@ -6459,9 +7928,18 @@
       <c r="O98" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="P98" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="1" t="s">
         <v>112</v>
       </c>
@@ -6507,9 +7985,18 @@
       <c r="O99" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="P99" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="1" t="s">
         <v>113</v>
       </c>
@@ -6555,9 +8042,18 @@
       <c r="O100" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="P100" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="1" t="s">
         <v>114</v>
       </c>
@@ -6603,9 +8099,18 @@
       <c r="O101" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="P101" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="1" t="s">
         <v>115</v>
       </c>
@@ -6651,9 +8156,18 @@
       <c r="O102" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="P102" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="1" t="s">
         <v>116</v>
       </c>
@@ -6699,9 +8213,18 @@
       <c r="O103" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="P103" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="1" t="s">
         <v>23</v>
       </c>
@@ -6747,9 +8270,18 @@
       <c r="O104" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P104" s="1"/>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="P104" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -6795,9 +8327,18 @@
       <c r="O105" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P105" s="1"/>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="P105" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
@@ -6843,9 +8384,18 @@
       <c r="O106" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P106" s="1"/>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="P106" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
@@ -6891,9 +8441,18 @@
       <c r="O107" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P107" s="1"/>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="P107" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -6936,9 +8495,18 @@
       <c r="O108" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P108" s="1"/>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="P108" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -6984,9 +8552,18 @@
       <c r="O109" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P109" s="1"/>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="P109" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
@@ -7032,9 +8609,18 @@
       <c r="O110" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P110" s="1"/>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="P110" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
@@ -7080,9 +8666,18 @@
       <c r="O111" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P111" s="1"/>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="P111" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="1" t="s">
         <v>389</v>
       </c>
@@ -7128,9 +8723,18 @@
       <c r="O112" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P112" s="1"/>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="P112" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="1" t="s">
         <v>124</v>
       </c>
@@ -7176,9 +8780,18 @@
       <c r="O113" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P113" s="1"/>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="P113" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="1" t="s">
         <v>125</v>
       </c>
@@ -7224,9 +8837,18 @@
       <c r="O114" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P114" s="1"/>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="P114" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="1" t="s">
         <v>24</v>
       </c>
@@ -7272,9 +8894,18 @@
       <c r="O115" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P115" s="1"/>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="P115" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="1" t="s">
         <v>25</v>
       </c>
@@ -7320,9 +8951,18 @@
       <c r="O116" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P116" s="1"/>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="P116" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="1" t="s">
         <v>126</v>
       </c>
@@ -7368,9 +9008,18 @@
       <c r="O117" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P117" s="1"/>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="P117" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="1" t="s">
         <v>127</v>
       </c>
@@ -7416,9 +9065,18 @@
       <c r="O118" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P118" s="1"/>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="P118" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="1" t="s">
         <v>128</v>
       </c>
@@ -7464,9 +9122,18 @@
       <c r="O119" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P119" s="1"/>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="P119" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
@@ -7512,9 +9179,18 @@
       <c r="O120" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P120" s="1"/>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="P120" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
@@ -7560,9 +9236,18 @@
       <c r="O121" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P121" s="1"/>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="P121" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -7608,9 +9293,18 @@
       <c r="O122" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P122" s="1"/>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="P122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="1" t="s">
         <v>132</v>
       </c>
@@ -7656,9 +9350,18 @@
       <c r="O123" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P123" s="1"/>
-    </row>
-    <row r="124" spans="1:16">
+      <c r="P123" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="1" t="s">
         <v>26</v>
       </c>
@@ -7701,9 +9404,18 @@
       <c r="O124" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P124" s="1"/>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="P124" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="1" t="s">
         <v>133</v>
       </c>
@@ -7749,9 +9461,18 @@
       <c r="O125" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P125" s="1"/>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="P125" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="1" t="s">
         <v>134</v>
       </c>
@@ -7797,9 +9518,18 @@
       <c r="O126" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P126" s="1"/>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="P126" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="1" t="s">
         <v>135</v>
       </c>
@@ -7845,9 +9575,18 @@
       <c r="O127" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P127" s="1"/>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="P127" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="1" t="s">
         <v>136</v>
       </c>
@@ -7893,9 +9632,18 @@
       <c r="O128" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P128" s="1"/>
-    </row>
-    <row r="129" spans="1:16">
+      <c r="P128" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="1" t="s">
         <v>137</v>
       </c>
@@ -7941,9 +9689,18 @@
       <c r="O129" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P129" s="1"/>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="P129" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="1" t="s">
         <v>138</v>
       </c>
@@ -7989,9 +9746,18 @@
       <c r="O130" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P130" s="1"/>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="P130" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R130" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="1" t="s">
         <v>139</v>
       </c>
@@ -8037,9 +9803,18 @@
       <c r="O131" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P131" s="1"/>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="P131" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R131" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="1" t="s">
         <v>140</v>
       </c>
@@ -8085,9 +9860,18 @@
       <c r="O132" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P132" s="1"/>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="P132" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="1" t="s">
         <v>141</v>
       </c>
@@ -8133,9 +9917,18 @@
       <c r="O133" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P133" s="1"/>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="P133" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="1" t="s">
         <v>142</v>
       </c>
@@ -8181,9 +9974,18 @@
       <c r="O134" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P134" s="1"/>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="P134" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R134" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="1" t="s">
         <v>143</v>
       </c>
@@ -8229,9 +10031,18 @@
       <c r="O135" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P135" s="1"/>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="P135" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R135" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="1" t="s">
         <v>144</v>
       </c>
@@ -8277,9 +10088,18 @@
       <c r="O136" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P136" s="1"/>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="P136" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="1" t="s">
         <v>145</v>
       </c>
@@ -8322,9 +10142,18 @@
       <c r="O137" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P137" s="1"/>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="P137" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R137" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="1" t="s">
         <v>146</v>
       </c>
@@ -8367,9 +10196,18 @@
       <c r="O138" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P138" s="1"/>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="P138" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="1" t="s">
         <v>147</v>
       </c>
@@ -8415,9 +10253,18 @@
       <c r="O139" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P139" s="1"/>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="P139" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="1" t="s">
         <v>148</v>
       </c>
@@ -8463,9 +10310,18 @@
       <c r="O140" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P140" s="1"/>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="P140" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="1" t="s">
         <v>149</v>
       </c>
@@ -8511,9 +10367,18 @@
       <c r="O141" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P141" s="1"/>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="P141" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="1" t="s">
         <v>150</v>
       </c>
@@ -8559,9 +10424,18 @@
       <c r="O142" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P142" s="1"/>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="P142" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="1" t="s">
         <v>27</v>
       </c>
@@ -8607,9 +10481,18 @@
       <c r="O143" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P143" s="1"/>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="P143" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
@@ -8655,9 +10538,18 @@
       <c r="O144" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P144" s="1"/>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="P144" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R144" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
@@ -8703,9 +10595,18 @@
       <c r="O145" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P145" s="1"/>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="P145" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R145" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
@@ -8751,9 +10652,18 @@
       <c r="O146" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P146" s="1"/>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="P146" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="1" t="s">
         <v>28</v>
       </c>
@@ -8799,9 +10709,18 @@
       <c r="O147" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P147" s="1"/>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="P147" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q147" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R147" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="1" t="s">
         <v>29</v>
       </c>
@@ -8847,9 +10766,18 @@
       <c r="O148" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P148" s="1"/>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="P148" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q148" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R148" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="1" t="s">
         <v>154</v>
       </c>
@@ -8895,9 +10823,18 @@
       <c r="O149" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P149" s="1"/>
-    </row>
-    <row r="150" spans="1:16">
+      <c r="P149" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q149" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R149" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="1" t="s">
         <v>155</v>
       </c>
@@ -8943,9 +10880,18 @@
       <c r="O150" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P150" s="1"/>
-    </row>
-    <row r="151" spans="1:16">
+      <c r="P150" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="2" t="s">
         <v>383</v>
       </c>
@@ -8991,9 +10937,18 @@
       <c r="O151" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P151" s="2"/>
-    </row>
-    <row r="152" spans="1:16">
+      <c r="P151" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q151" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="S151" s="2"/>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="1" t="s">
         <v>156</v>
       </c>
@@ -9039,9 +10994,18 @@
       <c r="O152" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P152" s="1"/>
-    </row>
-    <row r="153" spans="1:16">
+      <c r="P152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="1" t="s">
         <v>157</v>
       </c>
@@ -9087,9 +11051,18 @@
       <c r="O153" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P153" s="1"/>
-    </row>
-    <row r="154" spans="1:16">
+      <c r="P153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="1" t="s">
         <v>158</v>
       </c>
@@ -9135,9 +11108,18 @@
       <c r="O154" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P154" s="1"/>
-    </row>
-    <row r="155" spans="1:16">
+      <c r="P154" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="1" t="s">
         <v>159</v>
       </c>
@@ -9183,9 +11165,18 @@
       <c r="O155" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P155" s="1"/>
-    </row>
-    <row r="156" spans="1:16">
+      <c r="P155" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="1" t="s">
         <v>160</v>
       </c>
@@ -9231,9 +11222,18 @@
       <c r="O156" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P156" s="1"/>
-    </row>
-    <row r="157" spans="1:16">
+      <c r="P156" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="1" t="s">
         <v>161</v>
       </c>
@@ -9279,9 +11279,18 @@
       <c r="O157" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P157" s="1"/>
-    </row>
-    <row r="158" spans="1:16">
+      <c r="P157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="1" t="s">
         <v>162</v>
       </c>
@@ -9327,9 +11336,18 @@
       <c r="O158" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P158" s="1"/>
-    </row>
-    <row r="159" spans="1:16">
+      <c r="P158" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="1" t="s">
         <v>163</v>
       </c>
@@ -9375,9 +11393,18 @@
       <c r="O159" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P159" s="1"/>
-    </row>
-    <row r="160" spans="1:16">
+      <c r="P159" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="1" t="s">
         <v>30</v>
       </c>
@@ -9423,9 +11450,18 @@
       <c r="O160" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P160" s="1"/>
-    </row>
-    <row r="161" spans="1:16">
+      <c r="P160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="1" t="s">
         <v>164</v>
       </c>
@@ -9471,9 +11507,18 @@
       <c r="O161" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P161" s="1"/>
-    </row>
-    <row r="162" spans="1:16">
+      <c r="P161" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
         <v>165</v>
       </c>
@@ -9519,9 +11564,18 @@
       <c r="O162" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P162" s="1"/>
-    </row>
-    <row r="163" spans="1:16">
+      <c r="P162" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
         <v>166</v>
       </c>
@@ -9567,9 +11621,18 @@
       <c r="O163" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P163" s="1"/>
-    </row>
-    <row r="164" spans="1:16">
+      <c r="P163" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="1" t="s">
         <v>167</v>
       </c>
@@ -9615,9 +11678,18 @@
       <c r="O164" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P164" s="1"/>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="P164" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
         <v>168</v>
       </c>
@@ -9663,9 +11735,18 @@
       <c r="O165" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P165" s="1"/>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="P165" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="1" t="s">
         <v>169</v>
       </c>
@@ -9711,9 +11792,18 @@
       <c r="O166" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P166" s="1"/>
-    </row>
-    <row r="167" spans="1:16">
+      <c r="P166" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
         <v>170</v>
       </c>
@@ -9759,9 +11849,18 @@
       <c r="O167" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P167" s="1"/>
-    </row>
-    <row r="168" spans="1:16">
+      <c r="P167" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
         <v>171</v>
       </c>
@@ -9804,9 +11903,18 @@
       <c r="O168" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P168" s="1"/>
-    </row>
-    <row r="169" spans="1:16">
+      <c r="P168" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="1" t="s">
         <v>172</v>
       </c>
@@ -9852,9 +11960,18 @@
       <c r="O169" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P169" s="1"/>
-    </row>
-    <row r="170" spans="1:16">
+      <c r="P169" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">
         <v>173</v>
       </c>
@@ -9900,9 +12017,18 @@
       <c r="O170" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P170" s="1"/>
-    </row>
-    <row r="171" spans="1:16">
+      <c r="P170" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
         <v>174</v>
       </c>
@@ -9948,9 +12074,18 @@
       <c r="O171" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P171" s="1"/>
-    </row>
-    <row r="172" spans="1:16">
+      <c r="P171" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
         <v>175</v>
       </c>
@@ -9996,9 +12131,18 @@
       <c r="O172" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P172" s="1"/>
-    </row>
-    <row r="173" spans="1:16">
+      <c r="P172" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="1" t="s">
         <v>176</v>
       </c>
@@ -10044,9 +12188,18 @@
       <c r="O173" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P173" s="1"/>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="P173" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="1" t="s">
         <v>177</v>
       </c>
@@ -10092,9 +12245,18 @@
       <c r="O174" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P174" s="1"/>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="P174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="1" t="s">
         <v>178</v>
       </c>
@@ -10140,9 +12302,18 @@
       <c r="O175" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P175" s="1"/>
-    </row>
-    <row r="176" spans="1:16">
+      <c r="P175" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -10188,9 +12359,18 @@
       <c r="O176" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P176" s="1"/>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="P176" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="1" t="s">
         <v>180</v>
       </c>
@@ -10236,9 +12416,18 @@
       <c r="O177" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P177" s="1"/>
-    </row>
-    <row r="178" spans="1:16">
+      <c r="P177" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="1" t="s">
         <v>181</v>
       </c>
@@ -10284,9 +12473,18 @@
       <c r="O178" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P178" s="1"/>
-    </row>
-    <row r="179" spans="1:16">
+      <c r="P178" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="S178" s="1"/>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="1" t="s">
         <v>182</v>
       </c>
@@ -10332,9 +12530,18 @@
       <c r="O179" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P179" s="1"/>
-    </row>
-    <row r="180" spans="1:16">
+      <c r="P179" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="1" t="s">
         <v>183</v>
       </c>
@@ -10380,9 +12587,18 @@
       <c r="O180" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P180" s="1"/>
-    </row>
-    <row r="181" spans="1:16">
+      <c r="P180" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="1" t="s">
         <v>31</v>
       </c>
@@ -10428,9 +12644,18 @@
       <c r="O181" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P181" s="1"/>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="P181" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="1" t="s">
         <v>32</v>
       </c>
@@ -10476,9 +12701,18 @@
       <c r="O182" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P182" s="1"/>
-    </row>
-    <row r="183" spans="1:16">
+      <c r="P182" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="S182" s="1"/>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -10524,9 +12758,18 @@
       <c r="O183" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P183" s="1"/>
-    </row>
-    <row r="184" spans="1:16">
+      <c r="P183" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="S183" s="1"/>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="1" t="s">
         <v>33</v>
       </c>
@@ -10572,9 +12815,18 @@
       <c r="O184" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P184" s="1"/>
-    </row>
-    <row r="185" spans="1:16">
+      <c r="P184" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="S184" s="1"/>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="1" t="s">
         <v>34</v>
       </c>
@@ -10620,9 +12872,18 @@
       <c r="O185" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P185" s="1"/>
-    </row>
-    <row r="186" spans="1:16">
+      <c r="P185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="S185" s="1"/>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -10668,9 +12929,18 @@
       <c r="O186" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P186" s="1"/>
-    </row>
-    <row r="187" spans="1:16">
+      <c r="P186" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -10713,9 +12983,18 @@
       <c r="O187" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P187" s="1"/>
-    </row>
-    <row r="188" spans="1:16">
+      <c r="P187" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -10758,9 +13037,18 @@
       <c r="O188" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P188" s="1"/>
-    </row>
-    <row r="189" spans="1:16">
+      <c r="P188" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -10806,9 +13094,18 @@
       <c r="O189" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P189" s="1"/>
-    </row>
-    <row r="190" spans="1:16">
+      <c r="P189" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -10854,9 +13151,18 @@
       <c r="O190" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P190" s="1"/>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="P190" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -10902,9 +13208,18 @@
       <c r="O191" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P191" s="1"/>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="P191" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -10947,9 +13262,18 @@
       <c r="O192" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P192" s="1"/>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="P192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -10995,9 +13319,18 @@
       <c r="O193" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P193" s="1"/>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="P193" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194" spans="1:19">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -11043,9 +13376,18 @@
       <c r="O194" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P194" s="1"/>
-    </row>
-    <row r="195" spans="1:16">
+      <c r="P194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="S194" s="1"/>
+    </row>
+    <row r="195" spans="1:19">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -11091,9 +13433,18 @@
       <c r="O195" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P195" s="1"/>
-    </row>
-    <row r="196" spans="1:16">
+      <c r="P195" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="S195" s="1"/>
+    </row>
+    <row r="196" spans="1:19">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -11139,9 +13490,18 @@
       <c r="O196" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P196" s="1"/>
-    </row>
-    <row r="197" spans="1:16">
+      <c r="P196" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="S196" s="1"/>
+    </row>
+    <row r="197" spans="1:19">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="N197" s="1"/>
